--- a/PAK_Player_Data.xlsx
+++ b/PAK_Player_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\Team_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\main\MatchConRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/PAK_Player_Data.xlsx
+++ b/PAK_Player_Data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PlayerCountryList.asp?Country_PAK_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$34</definedName>
+    <definedName name="PlayerCountryList.asp?Country_PAK_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$31</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="153">
   <si>
     <t>Name</t>
   </si>
@@ -152,24 +152,12 @@
     <t>158*</t>
   </si>
   <si>
-    <t>Danish Aziz*</t>
-  </si>
-  <si>
-    <t>Danish Aziz</t>
-  </si>
-  <si>
-    <t>20/11/1995</t>
-  </si>
-  <si>
     <t>2021-</t>
   </si>
   <si>
     <t>9*</t>
   </si>
   <si>
-    <t>0/11</t>
-  </si>
-  <si>
     <t>Faheem Ashraf*</t>
   </si>
   <si>
@@ -389,24 +377,6 @@
     <t>5/33</t>
   </si>
   <si>
-    <t>Sarfaraz Ahmed*</t>
-  </si>
-  <si>
-    <t>Sarfaraz Ahmed</t>
-  </si>
-  <si>
-    <t>22/05/1987</t>
-  </si>
-  <si>
-    <t>2007-</t>
-  </si>
-  <si>
-    <t>105*</t>
-  </si>
-  <si>
-    <t>0/15</t>
-  </si>
-  <si>
     <t>Saud Shakeel*</t>
   </si>
   <si>
@@ -503,18 +473,6 @@
     <t>4/43</t>
   </si>
   <si>
-    <t>Usman Qadir*</t>
-  </si>
-  <si>
-    <t>Usman Qadir</t>
-  </si>
-  <si>
-    <t>10/08/1993</t>
-  </si>
-  <si>
-    <t>1/48</t>
-  </si>
-  <si>
     <t>Zahid Mahmood*</t>
   </si>
   <si>
@@ -539,7 +497,7 @@
     <t>0/39</t>
   </si>
   <si>
-    <t>Total Players = 32</t>
+    <t>Total Players = 29</t>
   </si>
 </sst>
 </file>
@@ -861,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O34"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,93 +1072,93 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="G6">
-        <v>12</v>
+        <v>224</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J6">
-        <v>6</v>
+        <v>10.67</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>46.31</v>
       </c>
       <c r="N6">
-        <v>5.4</v>
+        <v>5.18</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E7">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="G7">
-        <v>224</v>
+        <v>3492</v>
       </c>
       <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7" t="s">
-        <v>47</v>
+        <v>11</v>
+      </c>
+      <c r="I7">
+        <v>210</v>
       </c>
       <c r="J7">
-        <v>10.67</v>
+        <v>46.56</v>
       </c>
       <c r="K7">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>46.31</v>
+        <v>111</v>
       </c>
       <c r="N7">
-        <v>5.18</v>
+        <v>4.93</v>
       </c>
       <c r="O7" t="s">
         <v>48</v>
@@ -1217,178 +1175,178 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8">
-        <v>82</v>
+        <v>37</v>
       </c>
       <c r="F8">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="G8">
-        <v>3492</v>
+        <v>68</v>
       </c>
       <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>210</v>
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>53</v>
       </c>
       <c r="J8">
-        <v>46.56</v>
+        <v>8.5</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>111</v>
+        <v>26.41</v>
       </c>
       <c r="N8">
-        <v>4.93</v>
+        <v>5.96</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E9">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="F9">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G9">
-        <v>68</v>
+        <v>1749</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J9">
-        <v>8.5</v>
+        <v>44.85</v>
       </c>
       <c r="K9">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>26.41</v>
+        <v>55.73</v>
       </c>
       <c r="N9">
-        <v>5.96</v>
+        <v>5.73</v>
       </c>
       <c r="O9" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E10">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="F10">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G10">
-        <v>1749</v>
+        <v>383</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J10">
-        <v>44.85</v>
+        <v>14.19</v>
       </c>
       <c r="K10">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M10">
-        <v>55.73</v>
+        <v>30.84</v>
       </c>
       <c r="N10">
-        <v>5.73</v>
+        <v>5.8</v>
       </c>
       <c r="O10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="G11">
-        <v>383</v>
+        <v>614</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11" t="s">
-        <v>69</v>
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>109</v>
       </c>
       <c r="J11">
-        <v>14.19</v>
+        <v>38.380000000000003</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>16</v>
       </c>
       <c r="L11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>30.84</v>
+        <v>46.38</v>
       </c>
       <c r="N11">
-        <v>5.8</v>
+        <v>5.59</v>
       </c>
       <c r="O11" t="s">
         <v>70</v>
@@ -1405,72 +1363,72 @@
         <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E12">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>614</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>109</v>
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>75</v>
       </c>
       <c r="J12">
-        <v>38.380000000000003</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>46.38</v>
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>20</v>
       </c>
       <c r="N12">
-        <v>5.59</v>
+        <v>7.5</v>
       </c>
       <c r="O12" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>3138</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>48.28</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1481,11 +1439,8 @@
       <c r="M13" t="s">
         <v>20</v>
       </c>
-      <c r="N13">
-        <v>7.5</v>
-      </c>
-      <c r="O13" t="s">
-        <v>80</v>
+      <c r="N13" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -1499,25 +1454,25 @@
         <v>83</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="E14">
-        <v>72</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="G14">
-        <v>3138</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J14">
-        <v>48.28</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1534,46 +1489,49 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" t="s">
         <v>85</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>86</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+      <c r="F15">
+        <v>8</v>
+      </c>
+      <c r="G15">
+        <v>199</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>41</v>
+      </c>
+      <c r="J15">
+        <v>33.17</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>61</v>
+      </c>
+      <c r="N15">
+        <v>6.78</v>
+      </c>
+      <c r="O15" t="s">
         <v>87</v>
-      </c>
-      <c r="D15" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" t="s">
-        <v>20</v>
-      </c>
-      <c r="N15" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1587,222 +1545,222 @@
         <v>90</v>
       </c>
       <c r="D16" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E16">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F16">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G16">
-        <v>199</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="J16">
-        <v>33.17</v>
+        <v>7.5</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-      <c r="M16">
-        <v>61</v>
-      </c>
-      <c r="N16">
-        <v>6.78</v>
-      </c>
-      <c r="O16" t="s">
-        <v>91</v>
+      <c r="M16" t="s">
+        <v>20</v>
+      </c>
+      <c r="N16" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>93</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>94</v>
       </c>
-      <c r="D17" t="s">
-        <v>18</v>
-      </c>
       <c r="E17">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>5</v>
       </c>
       <c r="G17">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
-      <c r="I17">
-        <v>17</v>
+      <c r="I17" t="s">
+        <v>43</v>
       </c>
       <c r="J17">
-        <v>7.5</v>
+        <v>23.5</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>20</v>
-      </c>
-      <c r="N17" t="s">
-        <v>20</v>
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>41.42</v>
+      </c>
+      <c r="N17">
+        <v>6.44</v>
+      </c>
+      <c r="O17" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="E18">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="G18">
-        <v>47</v>
+        <v>406</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="J18">
-        <v>23.5</v>
+        <v>18.45</v>
       </c>
       <c r="K18">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M18">
-        <v>41.42</v>
+        <v>35.880000000000003</v>
       </c>
       <c r="N18">
-        <v>6.44</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="O18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C19" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="E19">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="F19">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="G19">
-        <v>406</v>
+        <v>2088</v>
       </c>
       <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19" t="s">
-        <v>103</v>
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>131</v>
       </c>
       <c r="J19">
-        <v>18.45</v>
+        <v>40.15</v>
       </c>
       <c r="K19">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>3</v>
-      </c>
-      <c r="M19">
-        <v>35.880000000000003</v>
-      </c>
-      <c r="N19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="O19" t="s">
-        <v>104</v>
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>20</v>
+      </c>
+      <c r="N19" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
         <v>105</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>106</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>9</v>
+      </c>
+      <c r="G20">
+        <v>80</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>17</v>
+      </c>
+      <c r="J20">
+        <v>11.43</v>
+      </c>
+      <c r="K20">
+        <v>34</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>25.18</v>
+      </c>
+      <c r="N20">
+        <v>5.34</v>
+      </c>
+      <c r="O20" t="s">
         <v>107</v>
-      </c>
-      <c r="D20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20">
-        <v>74</v>
-      </c>
-      <c r="F20">
-        <v>67</v>
-      </c>
-      <c r="G20">
-        <v>2088</v>
-      </c>
-      <c r="H20">
-        <v>3</v>
-      </c>
-      <c r="I20">
-        <v>131</v>
-      </c>
-      <c r="J20">
-        <v>40.15</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>20</v>
-      </c>
-      <c r="N20" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -1819,34 +1777,34 @@
         <v>18</v>
       </c>
       <c r="E21">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>80</v>
+        <v>31</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J21">
-        <v>11.43</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>25.18</v>
+        <v>16.97</v>
       </c>
       <c r="N21">
-        <v>5.34</v>
+        <v>4.6900000000000004</v>
       </c>
       <c r="O21" t="s">
         <v>111</v>
@@ -1863,84 +1821,84 @@
         <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="E22">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>31</v>
+        <v>317</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
-        <v>18</v>
+      <c r="I22" t="s">
+        <v>115</v>
       </c>
       <c r="J22">
-        <v>31</v>
+        <v>28.82</v>
       </c>
       <c r="K22">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.97</v>
+        <v>37</v>
       </c>
       <c r="N22">
-        <v>4.6900000000000004</v>
+        <v>4.72</v>
       </c>
       <c r="O22" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B23" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D23" t="s">
-        <v>119</v>
+        <v>42</v>
       </c>
       <c r="E23">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="F23">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="G23">
-        <v>2315</v>
+        <v>855</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="s">
         <v>120</v>
       </c>
       <c r="J23">
-        <v>33.549999999999997</v>
+        <v>25.91</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="M23">
+        <v>34.82</v>
       </c>
       <c r="N23">
-        <v>7.5</v>
+        <v>5.24</v>
       </c>
       <c r="O23" t="s">
         <v>121</v>
@@ -1957,16 +1915,16 @@
         <v>124</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="F24">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="G24">
-        <v>317</v>
+        <v>196</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1975,19 +1933,19 @@
         <v>125</v>
       </c>
       <c r="J24">
-        <v>28.82</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M24">
-        <v>37</v>
+        <v>23.94</v>
       </c>
       <c r="N24">
-        <v>4.72</v>
+        <v>5.54</v>
       </c>
       <c r="O24" t="s">
         <v>126</v>
@@ -2004,119 +1962,116 @@
         <v>129</v>
       </c>
       <c r="D25" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="E25">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="F25">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>855</v>
+        <v>4</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>73</v>
+      </c>
+      <c r="N25">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="O25" t="s">
         <v>130</v>
-      </c>
-      <c r="J25">
-        <v>25.91</v>
-      </c>
-      <c r="K25">
-        <v>85</v>
-      </c>
-      <c r="L25">
-        <v>5</v>
-      </c>
-      <c r="M25">
-        <v>34.82</v>
-      </c>
-      <c r="N25">
-        <v>5.24</v>
-      </c>
-      <c r="O25" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>131</v>
+      </c>
+      <c r="B26" t="s">
         <v>132</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>133</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
+        <v>94</v>
+      </c>
+      <c r="E26">
+        <v>9</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>163</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" t="s">
         <v>134</v>
       </c>
-      <c r="D26" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26">
-        <v>53</v>
-      </c>
-      <c r="F26">
-        <v>29</v>
-      </c>
-      <c r="G26">
-        <v>196</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" t="s">
-        <v>135</v>
-      </c>
       <c r="J26">
-        <v>16.329999999999998</v>
+        <v>18.11</v>
       </c>
       <c r="K26">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>9</v>
-      </c>
-      <c r="M26">
-        <v>23.94</v>
-      </c>
-      <c r="N26">
-        <v>5.54</v>
-      </c>
-      <c r="O26" t="s">
-        <v>136</v>
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>135</v>
+      </c>
+      <c r="B27" t="s">
+        <v>136</v>
+      </c>
+      <c r="C27" t="s">
         <v>137</v>
       </c>
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" t="s">
-        <v>139</v>
-      </c>
       <c r="D27" t="s">
-        <v>18</v>
+        <v>58</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="G27">
-        <v>4</v>
+        <v>781</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>30.04</v>
       </c>
       <c r="K27">
         <v>1</v>
@@ -2125,297 +2080,159 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="N27">
-        <v>4.5599999999999996</v>
+        <v>4.67</v>
       </c>
       <c r="O27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>139</v>
+      </c>
+      <c r="B28" t="s">
+        <v>140</v>
+      </c>
+      <c r="C28" t="s">
         <v>141</v>
       </c>
-      <c r="B28" t="s">
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28">
+        <v>6</v>
+      </c>
+      <c r="G28">
+        <v>40</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
         <v>142</v>
       </c>
-      <c r="C28" t="s">
+      <c r="J28">
+        <v>6.67</v>
+      </c>
+      <c r="K28">
+        <v>15</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>42.27</v>
+      </c>
+      <c r="N28">
+        <v>5.98</v>
+      </c>
+      <c r="O28" t="s">
         <v>143</v>
-      </c>
-      <c r="D28" t="s">
-        <v>98</v>
-      </c>
-      <c r="E28">
-        <v>9</v>
-      </c>
-      <c r="F28">
-        <v>9</v>
-      </c>
-      <c r="G28">
-        <v>163</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28" t="s">
-        <v>144</v>
-      </c>
-      <c r="J28">
-        <v>18.11</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>20</v>
-      </c>
-      <c r="N28" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B29" t="s">
         <v>145</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>146</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29">
+        <v>9</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" t="s">
+        <v>38</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>55</v>
+      </c>
+      <c r="N29">
+        <v>6.11</v>
+      </c>
+      <c r="O29" t="s">
         <v>147</v>
-      </c>
-      <c r="D29" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29">
-        <v>29</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-      <c r="G29">
-        <v>781</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>89</v>
-      </c>
-      <c r="J29">
-        <v>30.04</v>
-      </c>
-      <c r="K29">
-        <v>1</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>42</v>
-      </c>
-      <c r="N29">
-        <v>4.67</v>
-      </c>
-      <c r="O29" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>148</v>
+      </c>
+      <c r="B30" t="s">
         <v>149</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>150</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>74</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" t="s">
+        <v>75</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>20</v>
+      </c>
+      <c r="N30">
+        <v>6.5</v>
+      </c>
+      <c r="O30" t="s">
         <v>151</v>
-      </c>
-      <c r="D30" t="s">
-        <v>78</v>
-      </c>
-      <c r="E30">
-        <v>12</v>
-      </c>
-      <c r="F30">
-        <v>6</v>
-      </c>
-      <c r="G30">
-        <v>40</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" t="s">
-        <v>152</v>
-      </c>
-      <c r="J30">
-        <v>6.67</v>
-      </c>
-      <c r="K30">
-        <v>15</v>
-      </c>
-      <c r="L30">
-        <v>1</v>
-      </c>
-      <c r="M30">
-        <v>42.27</v>
-      </c>
-      <c r="N30">
-        <v>5.98</v>
-      </c>
-      <c r="O30" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" t="s">
-        <v>155</v>
-      </c>
-      <c r="C31" t="s">
-        <v>156</v>
-      </c>
-      <c r="D31" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" t="s">
-        <v>79</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>1</v>
-      </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>48</v>
-      </c>
-      <c r="N31">
-        <v>5.33</v>
-      </c>
-      <c r="O31" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>158</v>
-      </c>
-      <c r="B32" t="s">
-        <v>159</v>
-      </c>
-      <c r="C32" t="s">
-        <v>160</v>
-      </c>
-      <c r="D32" t="s">
-        <v>18</v>
-      </c>
-      <c r="E32">
-        <v>4</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32">
-        <v>9</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32" t="s">
-        <v>41</v>
-      </c>
-      <c r="J32">
-        <v>9</v>
-      </c>
-      <c r="K32">
-        <v>4</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>55</v>
-      </c>
-      <c r="N32">
-        <v>6.11</v>
-      </c>
-      <c r="O32" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>162</v>
-      </c>
-      <c r="B33" t="s">
-        <v>163</v>
-      </c>
-      <c r="C33" t="s">
-        <v>164</v>
-      </c>
-      <c r="D33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" t="s">
-        <v>79</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33" t="s">
-        <v>20</v>
-      </c>
-      <c r="N33">
-        <v>6.5</v>
-      </c>
-      <c r="O33" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
